--- a/APM files/141331120/OLALA APARTMENTS EID's List.xlsx
+++ b/APM files/141331120/OLALA APARTMENTS EID's List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Files\Doccuments\27th June 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141331120/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DEDBAF-342C-4971-9686-AECC9E8527F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4239CDA1-22C9-C944-B89C-937077D843B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{194CF937-6106-4C1C-A135-BB52BF4ADD82}"/>
+    <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26860" xr2:uid="{194CF937-6106-4C1C-A135-BB52BF4ADD82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,666 +644,666 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801F6C92-37AB-428C-B120-88BE1ECDA053}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
         <v>1404007</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>7650002</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>15475320</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>19301330</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>19301507</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>19312667</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>19312891</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>19313121</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>19898467</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>19898740</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>19898913</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>21863375</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>27362517</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>29073374</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>29371090</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>31726491</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>33282563</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>35621345</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>35623737</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>36121574</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>37287502</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>38493973</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>42599361</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>42599362</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>42599373</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>42600300</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>45406624</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>45406626</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>48211118</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>71950509</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>72601389</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>73125117</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>82811472</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>92872636</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>93853654</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>95541947</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>96115007</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>96115613</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>99391997</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>99392291</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>99392330</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>99392667</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>99392700</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>99392760</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>99392873</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>99392969</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>99396499</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>99396745</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>99396792</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>99396892</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>99396960</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>99397009</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>99397090</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>99397163</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>99397173</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>99397218</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>99397260</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>99397307</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>99397469</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>101330302</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>101355241</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>103113479</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>104065519</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>105970505</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>112775604</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>112775605</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>112775606</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>112775607</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>112775608</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>112775609</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>112775610</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>112775611</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>112775615</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>112775618</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>112775620</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>112775624</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>112775627</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>116152789</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>116532562</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>116577177</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>116643391</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>116750553</v>
       </c>
       <c r="B82" t="s">
@@ -1314,4 +1313,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{03ef5274-90b8-4b3f-8a76-b4c36a43e904}" enabled="1" method="Standard" siteId="{61e6eeb3-5fd7-4aaa-ae3c-61e8deb09b79}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>